--- a/data_uji.xlsx
+++ b/data_uji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMT4\Kecerdasan_buatan\machine_learing\LearningAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C15CF-98AC-4C25-8213-344CCFBBAB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB71757-8343-4B6A-8F28-70D10D9498A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E704F849-E1BD-4880-993A-4EA07A6B649E}"/>
+    <workbookView xWindow="14088" yWindow="3360" windowWidth="8856" windowHeight="8880" xr2:uid="{E704F849-E1BD-4880-993A-4EA07A6B649E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294BB81-A431-4D4A-83F4-31F16943DFDE}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>58</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
